--- a/liderancas.xlsx
+++ b/liderancas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60617d769e9be25d/Documentos/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_FFC65FC049192FD50E170B382B357498665EDFAA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{282E7108-D90B-46E0-A666-FDAD5C2F9E69}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_FFC65FC049192FD50E170B382B357498665EDFAA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A65DD954-C362-460B-B9ED-1CC724B0692D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="212">
   <si>
     <t>Nome_Parlamentar</t>
   </si>
@@ -421,30 +421,18 @@
     <t>082 99646-1515</t>
   </si>
   <si>
-    <t>xxxxx</t>
-  </si>
-  <si>
     <t>061 99623-9970</t>
   </si>
   <si>
-    <t>098 99188-1414</t>
-  </si>
-  <si>
     <t>061 99175-8139</t>
   </si>
   <si>
     <t>021 98187-4793</t>
   </si>
   <si>
-    <t>085 99246-826</t>
-  </si>
-  <si>
     <t>049 98831-2168</t>
   </si>
   <si>
-    <t xml:space="preserve">061 98274-0685 </t>
-  </si>
-  <si>
     <t>051 99463-7344</t>
   </si>
   <si>
@@ -457,9 +445,6 @@
     <t>061 99403-1487</t>
   </si>
   <si>
-    <t>Kelly</t>
-  </si>
-  <si>
     <t>Conrado</t>
   </si>
   <si>
@@ -539,6 +524,138 @@
   </si>
   <si>
     <t xml:space="preserve">Federação Brasil da Esperança - Fe Brasil	</t>
+  </si>
+  <si>
+    <t>061 99981-9683</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Hermes</t>
+  </si>
+  <si>
+    <t>061 99985-7345</t>
+  </si>
+  <si>
+    <t>061 99994-8910</t>
+  </si>
+  <si>
+    <t>Noeli</t>
+  </si>
+  <si>
+    <t>061 99519-1440</t>
+  </si>
+  <si>
+    <t>Marivaldo</t>
+  </si>
+  <si>
+    <t>061 99985-8537</t>
+  </si>
+  <si>
+    <t>Rafael</t>
+  </si>
+  <si>
+    <t>061 98104-0205</t>
+  </si>
+  <si>
+    <t>Débora</t>
+  </si>
+  <si>
+    <t>082 99971-0612</t>
+  </si>
+  <si>
+    <t>Renato</t>
+  </si>
+  <si>
+    <t>061 99815-0833</t>
+  </si>
+  <si>
+    <t>021 98105-1277</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>061 99103-0773</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>051 99591-4462</t>
+  </si>
+  <si>
+    <t>061 98124-1234</t>
+  </si>
+  <si>
+    <t>061 98215-2443</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>073 98834-8409</t>
+  </si>
+  <si>
+    <t>061 99612-9930</t>
+  </si>
+  <si>
+    <t>Cristiano</t>
+  </si>
+  <si>
+    <t>081 99960-6635</t>
+  </si>
+  <si>
+    <t>061 98116-1635</t>
+  </si>
+  <si>
+    <t>Fabiano</t>
+  </si>
+  <si>
+    <t>061 99943-0014</t>
+  </si>
+  <si>
+    <t>098 99105-0044</t>
+  </si>
+  <si>
+    <t>Marcos</t>
+  </si>
+  <si>
+    <t>011 97317-1777</t>
+  </si>
+  <si>
+    <t>061 98570-0340</t>
+  </si>
+  <si>
+    <t>Liliene</t>
+  </si>
+  <si>
+    <t>061 98157-1312</t>
+  </si>
+  <si>
+    <t>061 99820-3010</t>
+  </si>
+  <si>
+    <t>Teresa</t>
+  </si>
+  <si>
+    <t>061 98118-4600</t>
+  </si>
+  <si>
+    <t>061 98118-1857</t>
+  </si>
+  <si>
+    <t>Solange</t>
+  </si>
+  <si>
+    <t>051 99774-1717</t>
+  </si>
+  <si>
+    <t>061 99108-0813</t>
+  </si>
+  <si>
+    <t>Marina</t>
   </si>
 </sst>
 </file>
@@ -913,7 +1030,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,7 +1077,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -971,7 +1088,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
@@ -986,7 +1103,7 @@
         <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H2" t="s">
         <v>105</v>
@@ -995,10 +1112,10 @@
         <v>126</v>
       </c>
       <c r="J2" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="K2" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1021,7 +1138,7 @@
         <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H3" t="s">
         <v>106</v>
@@ -1030,10 +1147,10 @@
         <v>127</v>
       </c>
       <c r="J3" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="K3" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1065,10 +1182,10 @@
         <v>128</v>
       </c>
       <c r="J4" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="K4" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1091,7 +1208,7 @@
         <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H5" t="s">
         <v>108</v>
@@ -1100,10 +1217,10 @@
         <v>129</v>
       </c>
       <c r="J5" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="K5" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1135,10 +1252,10 @@
         <v>130</v>
       </c>
       <c r="J6" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="K6" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1170,15 +1287,15 @@
         <v>131</v>
       </c>
       <c r="J7" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="K7" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -1196,7 +1313,7 @@
         <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H8" t="s">
         <v>111</v>
@@ -1205,10 +1322,10 @@
         <v>132</v>
       </c>
       <c r="J8" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="K8" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1216,7 +1333,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
@@ -1231,24 +1348,24 @@
         <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H9" t="s">
         <v>112</v>
       </c>
       <c r="I9" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="J9" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="K9" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -1272,13 +1389,13 @@
         <v>113</v>
       </c>
       <c r="I10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J10" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="K10" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1307,18 +1424,18 @@
         <v>114</v>
       </c>
       <c r="I11" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="J11" t="s">
+        <v>137</v>
+      </c>
+      <c r="K11" t="s">
         <v>141</v>
-      </c>
-      <c r="K11" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
@@ -1336,19 +1453,19 @@
         <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H12" t="s">
         <v>115</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1377,13 +1494,13 @@
         <v>116</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1412,13 +1529,13 @@
         <v>117</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="J14" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1426,10 +1543,10 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D15" t="s">
         <v>47</v>
@@ -1447,13 +1564,13 @@
         <v>118</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="K15" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1482,18 +1599,18 @@
         <v>119</v>
       </c>
       <c r="I16" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="J16" t="s">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="K16" t="s">
-        <v>133</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
@@ -1511,27 +1628,27 @@
         <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H17" t="s">
         <v>120</v>
       </c>
       <c r="I17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J17" t="s">
+        <v>138</v>
+      </c>
+      <c r="K17" t="s">
         <v>142</v>
-      </c>
-      <c r="K17" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
@@ -1552,21 +1669,21 @@
         <v>121</v>
       </c>
       <c r="I18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J18" t="s">
+        <v>139</v>
+      </c>
+      <c r="K18" t="s">
         <v>143</v>
-      </c>
-      <c r="K18" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C19" t="s">
         <v>39</v>
@@ -1587,13 +1704,13 @@
         <v>122</v>
       </c>
       <c r="I19" t="s">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="J19" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="K19" t="s">
-        <v>133</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1601,7 +1718,7 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C20" t="s">
         <v>39</v>
@@ -1622,13 +1739,13 @@
         <v>123</v>
       </c>
       <c r="I20" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="J20" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="K20" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1636,7 +1753,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C21" t="s">
         <v>37</v>
@@ -1657,13 +1774,13 @@
         <v>124</v>
       </c>
       <c r="I21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K21" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1671,7 +1788,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
@@ -1686,16 +1803,19 @@
         <v>92</v>
       </c>
       <c r="G22" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H22" t="s">
         <v>125</v>
       </c>
       <c r="I22" t="s">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="J22" t="s">
-        <v>133</v>
+        <v>210</v>
+      </c>
+      <c r="K22" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/liderancas.xlsx
+++ b/liderancas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60617d769e9be25d/Documentos/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_FFC65FC049192FD50E170B382B357498665EDFAA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A65DD954-C362-460B-B9ED-1CC724B0692D}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="11_FFC65FC049192FD50E170B382B357498665EDFAA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4C2B3AE-E223-496E-B9F5-432D2D3BF9AB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5115" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="234">
   <si>
     <t>Nome_Parlamentar</t>
   </si>
@@ -656,6 +656,72 @@
   </si>
   <si>
     <t>Marina</t>
+  </si>
+  <si>
+    <t>Texto_Embedding</t>
+  </si>
+  <si>
+    <t>Adolfo Viana é líder da Federação PSDB Cidadania, é do partido PSDB pelo estado da Bahia, seu telefone é 3215-5911, seu email é dep.adolfoviana@camara.leg.br, o endereço da liderança é Edifício Principal, ala B, Térreo, sala 15, o endereço do Gabinete é Anexo 4, gabinete 911, o celular do deputado é 071 99961-2530, o celular do assessor é 061 99981-9683 e o nome do assessor é Fred</t>
+  </si>
+  <si>
+    <t>Antonio Brito é líder do PSD, é do partido PSD pela Bahia, seu telefone é 3215-5535, seu email é dep.antoniobrito@camara.leg.br, o endereço da liderança é Anexo I, 6º andar, sala 607, o endereço do Gabinete é Anexo 4, gabinete 406, o celular do deputado é 071 99122-5515, o celular do assessor é 061 99974-3690 e o nome do assessor é Isaac</t>
+  </si>
+  <si>
+    <t>Aureo Ribeiro é líder do Solidariedade, é do partido Solidariedade pelo estado do Rio de Janeiro, seu telefone é 3215-5853, seu email é dep.aureoribeiro@camara.leg.br, o endereço da liderança é Anexo I, 3º andar, sala 351, o endereço do Gabinete é Anexo 3, gabinete 421, o celular do deputado é 021 99999-9999, o celular do assessor é 061 98449-9421 e o nome do assessor é João Victor</t>
+  </si>
+  <si>
+    <t>Doutor Luizinho é líder do PP, é do partido PP pelo Rio de Janeiro, seu telefone é 3215-5827, seu email é dep.doutorluizinho@camara.leg.br, o endereço da liderança é Anexo I, 6º andar, sala 603, o endereço do Gabinete é Anexo 4, gabinete 441, o celular do deputado é 021 99966-9862, o celular do assessor é 061 99964-3639 e o nome do assessor é Diego</t>
+  </si>
+  <si>
+    <t>Fred Costa é líder do PRD, é do partido PRD por Minas Gerais, seu telefone é 3215-5256, seu email é dep.fredcosta@camara.leg.br, o endereço da liderança é Anexo I, 4º andar, sala 460, o endereço do Gabinete é Anexo 3, gabinete 424, o celular do deputado é 031 98759-7900, o celular do assessor é 061 99903-3395 e o nome do assessor é Fabrício</t>
+  </si>
+  <si>
+    <t>Gilberto Abramo é líder do Republicanos, é do partido Republicanos por Minas Gerais, seu telefone é 3215-5224, seu email é dep.gilbertoabramo@camara.leg.br, o endereço da liderança é Anexo I, 5º andar, sala 508, o endereço do Gabinete é Anexo 3, gabinete 354, o celular do deputado é 031 99981-4580, o celular do assessor é 061 99118-8086 e o nome do assessor é Diego</t>
+  </si>
+  <si>
+    <t>Isnaldo Bulhões Jr. é líder do MDB, é do partido MDB por Alagoas, seu telefone é 3215-5474, seu email é dep.isnaldobulhoesjr@camara.leg.br, o endereço da liderança é Anexo I, 5º andar, sala 505, o endereço do Gabinete é Anexo 3, gabinete 932, o celular do deputado é 082 99983-0011, o celular do assessor é 061 99686-2154 e o nome do assessor é Marcelo</t>
+  </si>
+  <si>
+    <t>Lindbergh Farias é líder da Federação Brasil da Esperança, é do partido PT pelo Rio de Janeiro, seu telefone é 3215-5470, seu email é dep.lindberghfarias@camara.leg.br, o endereço da liderança é Anexo I, 9º andar, sala 913, o endereço do Gabinete é Anexo 4, gabinete 930, o celular do deputado é 021 99888-7777, o celular do assessor é 061 99601-1616 e o nome do assessor é Renato</t>
+  </si>
+  <si>
+    <t>Luis Tibé é líder do bloco Avante-Solidariedade-PRD, é do partido Avante por Minas Gerais, seu telefone é 3215-5444, seu email é dep.luistibe@camara.leg.br, o endereço da liderança é Anexo I, 4º andar, sala 455, o endereço do Gabinete é Anexo 4, gabinete 316, o celular do deputado é 031 99993-2345, o celular do assessor é 061 99904-8476 e o nome do assessor é César</t>
+  </si>
+  <si>
+    <t>Marcel van Hattem é líder do Novo, é do partido Novo pelo Rio Grande do Sul, seu telefone é 3215-5817, seu email é dep.marcelvanhattem@camara.leg.br, o endereço da liderança é Anexo I, 9º andar, sala 916, o endereço do Gabinete é Anexo 3, gabinete 510, o celular do deputado é 051 99931-1313, o celular do assessor é 061 99666-1616 e o nome do assessor é Rafael</t>
+  </si>
+  <si>
+    <t>Mário Heringer é líder do PDT, é do partido PDT por Minas Gerais, seu telefone é 3215-5937, seu email é dep.marioheringer@camara.leg.br, o endereço da liderança é Anexo I, 5º andar, sala 506, o endereço do Gabinete é Anexo 3, gabinete 335, o celular do deputado é 031 99991-0000, o celular do assessor é 061 99211-7733 e o nome do assessor é Matheus</t>
+  </si>
+  <si>
+    <t>Neto Carletto é líder do Avante, é do partido Avante pela Bahia, seu telefone é 3215-5850, seu email é dep.netocarletto@camara.leg.br, o endereço da liderança é Anexo I, 4º andar, sala 456, o endereço do Gabinete é Anexo 3, gabinete 542, o celular do deputado é 071 99888-8877, o celular do assessor é 061 99991-1144 e o nome do assessor é Fabiano</t>
+  </si>
+  <si>
+    <t>Pedro Campos é líder do PSB, é do partido PSB por Pernambuco, seu telefone é 3215-5921, seu email é dep.pedrocampos@camara.leg.br, o endereço da liderança é Anexo I, 4º andar, sala 461, o endereço do Gabinete é Anexo 3, gabinete 316, o celular do deputado é 081 99999-4444, o celular do assessor é 061 99111-9900 e o nome do assessor é Marcos</t>
+  </si>
+  <si>
+    <t>Pedro Lucas Fernandes é líder do União Brasil, é do partido União pelo Maranhão, seu telefone é 3215-5841, seu email é dep.pedrolucasfernandes@camara.leg.br, o endereço da liderança é Anexo I, 5º andar, sala 512, o endereço do Gabinete é Anexo 3, gabinete 441, o celular do deputado é 098 99911-3344, o celular do assessor é 061 99233-5588 e o nome do assessor é Leonardo</t>
+  </si>
+  <si>
+    <t>Rodrigo Gambale é líder do Podemos, é do partido Podemos por São Paulo, seu telefone é 3215-5839, seu email é dep.rodrigogambale@camara.leg.br, o endereço da liderança é Anexo I, 6º andar, sala 601, o endereço do Gabinete é Anexo 3, gabinete 509, o celular do deputado é 011 99945-6677, o celular do assessor é 061 99100-4444 e o nome do assessor é Paulo</t>
+  </si>
+  <si>
+    <t>Sóstenes Cavalcante é líder do PL, é do partido PL pelo Rio de Janeiro, seu telefone é 3215-5525, seu email é dep.sostenescavalcante@camara.leg.br, o endereço da liderança é Anexo I, 3º andar, sala 321, o endereço do Gabinete é Anexo 3, gabinete 510, o celular do deputado é 021 99888-3344, o celular do assessor é 061 99112-9988 e o nome do assessor é Lucas</t>
+  </si>
+  <si>
+    <t>Talíria Petrone é líder da Federação PSOL REDE, é do partido PSOL pelo Rio de Janeiro, seu telefone é 3215-5635, seu email é dep.taliriapetrone@camara.leg.br, o endereço da liderança é Anexo I, 9º andar, sala 910, o endereço do Gabinete é Anexo 3, gabinete 536, o celular do deputado é 021 99993-1212, o celular do assessor é 061 99511-1234 e o nome do assessor é Caio</t>
+  </si>
+  <si>
+    <t>José Guimarães é líder do Governo na Câmara, é do partido PT pelo Ceará, seu telefone é 3215-5930, seu email é dep.joseguimaraes@camara.leg.br, o endereço da liderança é Anexo I, 3º andar, sala 313, o endereço do Gabinete é Anexo 4, gabinete 330, o celular do deputado é 085 98888-5555, o celular do assessor é 061 99544-6633 e o nome do assessor é Bruno</t>
+  </si>
+  <si>
+    <t>Arlindo Chinaglia é líder da Maioria na Câmara, é do partido PT por São Paulo, seu telefone é 3215-5539, seu email é dep.arlindochinaglia@camara.leg.br, o endereço da liderança é Anexo I, 3º andar, sala 316, o endereço do Gabinete é Anexo 3, gabinete 333, o celular do deputado é 011 98888-2222, o celular do assessor é 061 99444-7788 e o nome do assessor é Flávio</t>
+  </si>
+  <si>
+    <t>Caroline de Toni é líder da Minoria na Câmara, é do partido PL por Santa Catarina, seu telefone é 3215-5212, seu email é dep.carolinedetoni@camara.leg.br, o endereço da liderança é Anexo I, 3º andar, sala 315, o endereço do Gabinete é Anexo 3, gabinete 532, o celular do deputado é 048 98888-1111, o celular do assessor é 061 99555-4433 e o nome do assessor é Renan</t>
+  </si>
+  <si>
+    <t>Luciano Zucco é líder da Oposição na Câmara, é do partido PL pelo Rio Grande do Sul, seu telefone é 3215-5936, seu email é dep.zucco@camara.leg.br, o endereço da liderança é Anexo I, 3º andar, sala 314, o endereço do Gabinete é Anexo 4, gabinete 951, o celular do deputado é 051 98888-6666, o celular do assessor é 061 99333-5566 e o nome do assessor é Eduardo</t>
   </si>
 </sst>
 </file>
@@ -714,10 +780,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1027,28 +1099,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="255.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1082,8 +1155,11 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1117,8 +1193,11 @@
       <c r="K2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1152,8 +1231,11 @@
       <c r="K3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1187,8 +1269,11 @@
       <c r="K4" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1222,8 +1307,11 @@
       <c r="K5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1257,8 +1345,11 @@
       <c r="K6" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1292,8 +1383,11 @@
       <c r="K7" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>162</v>
       </c>
@@ -1327,8 +1421,11 @@
       <c r="K8" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1362,8 +1459,11 @@
       <c r="K9" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>157</v>
       </c>
@@ -1397,8 +1497,11 @@
       <c r="K10" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1432,8 +1535,11 @@
       <c r="K11" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>161</v>
       </c>
@@ -1467,8 +1573,11 @@
       <c r="K12" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1502,8 +1611,11 @@
       <c r="K13" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1537,8 +1649,11 @@
       <c r="K14" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1572,8 +1687,11 @@
       <c r="K15" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1607,8 +1725,11 @@
       <c r="K16" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>158</v>
       </c>
@@ -1642,8 +1763,11 @@
       <c r="K17" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>159</v>
       </c>
@@ -1677,8 +1801,11 @@
       <c r="K18" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>160</v>
       </c>
@@ -1712,8 +1839,11 @@
       <c r="K19" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1747,8 +1877,11 @@
       <c r="K20" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1782,8 +1915,11 @@
       <c r="K21" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1816,6 +1952,9 @@
       </c>
       <c r="K22" t="s">
         <v>211</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/liderancas.xlsx
+++ b/liderancas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60617d769e9be25d/Documentos/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="11_FFC65FC049192FD50E170B382B357498665EDFAA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4C2B3AE-E223-496E-B9F5-432D2D3BF9AB}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="11_FFC65FC049192FD50E170B382B357498665EDFAA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F4C7E03-9CD9-402F-8285-BDDC8D92CA0A}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5115" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -661,67 +661,67 @@
     <t>Texto_Embedding</t>
   </si>
   <si>
-    <t>Adolfo Viana é líder da Federação PSDB Cidadania, é do partido PSDB pelo estado da Bahia, seu telefone é 3215-5911, seu email é dep.adolfoviana@camara.leg.br, o endereço da liderança é Edifício Principal, ala B, Térreo, sala 15, o endereço do Gabinete é Anexo 4, gabinete 911, o celular do deputado é 071 99961-2530, o celular do assessor é 061 99981-9683 e o nome do assessor é Fred</t>
-  </si>
-  <si>
-    <t>Antonio Brito é líder do PSD, é do partido PSD pela Bahia, seu telefone é 3215-5535, seu email é dep.antoniobrito@camara.leg.br, o endereço da liderança é Anexo I, 6º andar, sala 607, o endereço do Gabinete é Anexo 4, gabinete 406, o celular do deputado é 071 99122-5515, o celular do assessor é 061 99974-3690 e o nome do assessor é Isaac</t>
-  </si>
-  <si>
-    <t>Aureo Ribeiro é líder do Solidariedade, é do partido Solidariedade pelo estado do Rio de Janeiro, seu telefone é 3215-5853, seu email é dep.aureoribeiro@camara.leg.br, o endereço da liderança é Anexo I, 3º andar, sala 351, o endereço do Gabinete é Anexo 3, gabinete 421, o celular do deputado é 021 99999-9999, o celular do assessor é 061 98449-9421 e o nome do assessor é João Victor</t>
-  </si>
-  <si>
-    <t>Doutor Luizinho é líder do PP, é do partido PP pelo Rio de Janeiro, seu telefone é 3215-5827, seu email é dep.doutorluizinho@camara.leg.br, o endereço da liderança é Anexo I, 6º andar, sala 603, o endereço do Gabinete é Anexo 4, gabinete 441, o celular do deputado é 021 99966-9862, o celular do assessor é 061 99964-3639 e o nome do assessor é Diego</t>
-  </si>
-  <si>
-    <t>Fred Costa é líder do PRD, é do partido PRD por Minas Gerais, seu telefone é 3215-5256, seu email é dep.fredcosta@camara.leg.br, o endereço da liderança é Anexo I, 4º andar, sala 460, o endereço do Gabinete é Anexo 3, gabinete 424, o celular do deputado é 031 98759-7900, o celular do assessor é 061 99903-3395 e o nome do assessor é Fabrício</t>
-  </si>
-  <si>
-    <t>Gilberto Abramo é líder do Republicanos, é do partido Republicanos por Minas Gerais, seu telefone é 3215-5224, seu email é dep.gilbertoabramo@camara.leg.br, o endereço da liderança é Anexo I, 5º andar, sala 508, o endereço do Gabinete é Anexo 3, gabinete 354, o celular do deputado é 031 99981-4580, o celular do assessor é 061 99118-8086 e o nome do assessor é Diego</t>
-  </si>
-  <si>
-    <t>Isnaldo Bulhões Jr. é líder do MDB, é do partido MDB por Alagoas, seu telefone é 3215-5474, seu email é dep.isnaldobulhoesjr@camara.leg.br, o endereço da liderança é Anexo I, 5º andar, sala 505, o endereço do Gabinete é Anexo 3, gabinete 932, o celular do deputado é 082 99983-0011, o celular do assessor é 061 99686-2154 e o nome do assessor é Marcelo</t>
-  </si>
-  <si>
-    <t>Lindbergh Farias é líder da Federação Brasil da Esperança, é do partido PT pelo Rio de Janeiro, seu telefone é 3215-5470, seu email é dep.lindberghfarias@camara.leg.br, o endereço da liderança é Anexo I, 9º andar, sala 913, o endereço do Gabinete é Anexo 4, gabinete 930, o celular do deputado é 021 99888-7777, o celular do assessor é 061 99601-1616 e o nome do assessor é Renato</t>
-  </si>
-  <si>
-    <t>Luis Tibé é líder do bloco Avante-Solidariedade-PRD, é do partido Avante por Minas Gerais, seu telefone é 3215-5444, seu email é dep.luistibe@camara.leg.br, o endereço da liderança é Anexo I, 4º andar, sala 455, o endereço do Gabinete é Anexo 4, gabinete 316, o celular do deputado é 031 99993-2345, o celular do assessor é 061 99904-8476 e o nome do assessor é César</t>
-  </si>
-  <si>
-    <t>Marcel van Hattem é líder do Novo, é do partido Novo pelo Rio Grande do Sul, seu telefone é 3215-5817, seu email é dep.marcelvanhattem@camara.leg.br, o endereço da liderança é Anexo I, 9º andar, sala 916, o endereço do Gabinete é Anexo 3, gabinete 510, o celular do deputado é 051 99931-1313, o celular do assessor é 061 99666-1616 e o nome do assessor é Rafael</t>
-  </si>
-  <si>
-    <t>Mário Heringer é líder do PDT, é do partido PDT por Minas Gerais, seu telefone é 3215-5937, seu email é dep.marioheringer@camara.leg.br, o endereço da liderança é Anexo I, 5º andar, sala 506, o endereço do Gabinete é Anexo 3, gabinete 335, o celular do deputado é 031 99991-0000, o celular do assessor é 061 99211-7733 e o nome do assessor é Matheus</t>
-  </si>
-  <si>
-    <t>Neto Carletto é líder do Avante, é do partido Avante pela Bahia, seu telefone é 3215-5850, seu email é dep.netocarletto@camara.leg.br, o endereço da liderança é Anexo I, 4º andar, sala 456, o endereço do Gabinete é Anexo 3, gabinete 542, o celular do deputado é 071 99888-8877, o celular do assessor é 061 99991-1144 e o nome do assessor é Fabiano</t>
-  </si>
-  <si>
-    <t>Pedro Campos é líder do PSB, é do partido PSB por Pernambuco, seu telefone é 3215-5921, seu email é dep.pedrocampos@camara.leg.br, o endereço da liderança é Anexo I, 4º andar, sala 461, o endereço do Gabinete é Anexo 3, gabinete 316, o celular do deputado é 081 99999-4444, o celular do assessor é 061 99111-9900 e o nome do assessor é Marcos</t>
-  </si>
-  <si>
-    <t>Pedro Lucas Fernandes é líder do União Brasil, é do partido União pelo Maranhão, seu telefone é 3215-5841, seu email é dep.pedrolucasfernandes@camara.leg.br, o endereço da liderança é Anexo I, 5º andar, sala 512, o endereço do Gabinete é Anexo 3, gabinete 441, o celular do deputado é 098 99911-3344, o celular do assessor é 061 99233-5588 e o nome do assessor é Leonardo</t>
-  </si>
-  <si>
-    <t>Rodrigo Gambale é líder do Podemos, é do partido Podemos por São Paulo, seu telefone é 3215-5839, seu email é dep.rodrigogambale@camara.leg.br, o endereço da liderança é Anexo I, 6º andar, sala 601, o endereço do Gabinete é Anexo 3, gabinete 509, o celular do deputado é 011 99945-6677, o celular do assessor é 061 99100-4444 e o nome do assessor é Paulo</t>
-  </si>
-  <si>
-    <t>Sóstenes Cavalcante é líder do PL, é do partido PL pelo Rio de Janeiro, seu telefone é 3215-5525, seu email é dep.sostenescavalcante@camara.leg.br, o endereço da liderança é Anexo I, 3º andar, sala 321, o endereço do Gabinete é Anexo 3, gabinete 510, o celular do deputado é 021 99888-3344, o celular do assessor é 061 99112-9988 e o nome do assessor é Lucas</t>
-  </si>
-  <si>
-    <t>Talíria Petrone é líder da Federação PSOL REDE, é do partido PSOL pelo Rio de Janeiro, seu telefone é 3215-5635, seu email é dep.taliriapetrone@camara.leg.br, o endereço da liderança é Anexo I, 9º andar, sala 910, o endereço do Gabinete é Anexo 3, gabinete 536, o celular do deputado é 021 99993-1212, o celular do assessor é 061 99511-1234 e o nome do assessor é Caio</t>
-  </si>
-  <si>
-    <t>José Guimarães é líder do Governo na Câmara, é do partido PT pelo Ceará, seu telefone é 3215-5930, seu email é dep.joseguimaraes@camara.leg.br, o endereço da liderança é Anexo I, 3º andar, sala 313, o endereço do Gabinete é Anexo 4, gabinete 330, o celular do deputado é 085 98888-5555, o celular do assessor é 061 99544-6633 e o nome do assessor é Bruno</t>
-  </si>
-  <si>
-    <t>Arlindo Chinaglia é líder da Maioria na Câmara, é do partido PT por São Paulo, seu telefone é 3215-5539, seu email é dep.arlindochinaglia@camara.leg.br, o endereço da liderança é Anexo I, 3º andar, sala 316, o endereço do Gabinete é Anexo 3, gabinete 333, o celular do deputado é 011 98888-2222, o celular do assessor é 061 99444-7788 e o nome do assessor é Flávio</t>
-  </si>
-  <si>
-    <t>Caroline de Toni é líder da Minoria na Câmara, é do partido PL por Santa Catarina, seu telefone é 3215-5212, seu email é dep.carolinedetoni@camara.leg.br, o endereço da liderança é Anexo I, 3º andar, sala 315, o endereço do Gabinete é Anexo 3, gabinete 532, o celular do deputado é 048 98888-1111, o celular do assessor é 061 99555-4433 e o nome do assessor é Renan</t>
-  </si>
-  <si>
-    <t>Luciano Zucco é líder da Oposição na Câmara, é do partido PL pelo Rio Grande do Sul, seu telefone é 3215-5936, seu email é dep.zucco@camara.leg.br, o endereço da liderança é Anexo I, 3º andar, sala 314, o endereço do Gabinete é Anexo 4, gabinete 951, o celular do deputado é 051 98888-6666, o celular do assessor é 061 99333-5566 e o nome do assessor é Eduardo</t>
+    <t>O PSDB está na Federação PSDB CIDADANIA, portanto o líder é o Deputado Adolfo Viana, que representa o estado BA, seu telefone é 3215-5911, seu email é dep.adolfoviana@camara.leg.br, o endereço da liderança é Edifício Principal, ala B, Térreo, sala 15, o endereço do Gabinete é Anexo 4, gabinete 911, o celular do deputado é 071 99961-2530, o celular do assessor é 061 99981-9683 e o nome do assessor é Fred.</t>
+  </si>
+  <si>
+    <t>Caroline de Toni é líder da Minoria na Câmara, é do partido PL por Santa Catarina, seu telefone é 3215-5212, seu email é dep.carolinedetoni@camara.leg.br, o endereço da liderança é Anexo I, 3º andar, sala 315, o endereço do Gabinete é Anexo 3, gabinete 532, o celular do deputado é 049 98831-2168, o celular do assessor é 061 99403-1487 e o nome do assessor é Flávia</t>
+  </si>
+  <si>
+    <t>Luciano Zucco é líder da Oposição na Câmara, é do partido PL pelo Rio Grande do Sul, seu telefone é 3215-5936, seu email é dep.zucco@camara.leg.br, o endereço da liderança é Anexo I, 3º andar, sala 314, o endereço do Gabinete é Anexo 4, gabinete 951, o celular do deputado é 051 99774-1717, o celular do assessor é 061 99108-0813 e o nome do assessor é Marina</t>
+  </si>
+  <si>
+    <t>Arlindo Chinaglia é líder da Maioria na Câmara, é do partido PT por São Paulo, seu telefone é 3215-5539, seu email é dep.arlindochinaglia@camara.leg.br, o endereço da liderança é Anexo I, 3º andar, sala 316, o endereço do Gabinete é Anexo 3, gabinete 333, o celular do deputado é 061 98118-4600, o celular do assessor é 061 98118-1857 e o nome do assessor é Solange</t>
+  </si>
+  <si>
+    <t>José Guimarães é líder do Governo na Câmara, é do partido PT pelo Ceará, seu telefone é 3215-5930, seu email é dep.joseguimaraes@camara.leg.br, o endereço da liderança é Anexo I, 3º andar, sala 313, o endereço do Gabinete é Anexo 4, gabinete 330, o celular do deputado é 061 98157-1312, o celular do assessor é 061 99820-3010 e o nome da assessora é Teresa</t>
+  </si>
+  <si>
+    <t>O PSOL está na Federação PSOL REDE, portanto o líder é a Deputada Talíria Petrone, que representa o Rio de Janeiro, seu telefone é 3215-5193, seu email é dep.taliriapetrone@camara.leg.br, o endereço da liderança é Anexo II, piso superior ala C, sala 116, o endereço do Gabinete é Anexo 3, gabinete 193, o celular do deputado é 021 98187-4793, o celular do assessor é 022 98112-3198 e o nome do assessor é Emanuel.</t>
+  </si>
+  <si>
+    <t>O líder do PSD é o Deputado Antonio Brito, que representa o estado BA, seu telefone é 3215-5985, seu email é dep.antoniobrito@camara.leg.br, o endereço da liderança é Anexo II, piso superior, espaço do servidor, o endereço do Gabinete é Anexo 3, gabinete 985, o celular do deputado é 061 99654-9496, o celular do assessor é 061 99994-8910 e o nome do assessor é Hermes.</t>
+  </si>
+  <si>
+    <t>Aureo Ribeiro é líder do Solidariedade, é do partido Solidariedade pelo estado do Rio de Janeiro, seu telefone é 3215-5853, seu email é dep.aureoribeiro@camara.leg.br, o endereço da liderança é Anexo I, 3º andar, sala 351, o endereço do Gabinete é Anexo 3, gabinete 421, o celular do deputado é 061 99102-5662, o celular do assessor é 061 99985-7345 e o nome da assessora é Noeli.</t>
+  </si>
+  <si>
+    <t>Doutor Luizinho é líder do PP, é do partido PP pelo Rio de Janeiro, seu telefone é 3215-5827, seu email é dep.doutorluizinho@camara.leg.br, o endereço da liderança é Anexo I, 6º andar, sala 603, o endereço do Gabinete é Anexo 4, gabinete 441, o celular do deputado é 021 99386-4728, o celular do assessor é 061 99519-1440 e o nome do assessor é Marivaldo</t>
+  </si>
+  <si>
+    <t>Fred Costa é líder do PRD, é do partido PRD por Minas Gerais, seu telefone é 3215-5256, seu email é dep.fredcosta@camara.leg.br, o endereço da liderança é Anexo I, 4º andar, sala 460, o endereço do Gabinete é Anexo 3, gabinete 424, o celular do deputado é 031 99984-1123, o celular do assessor é 061 99985-8537 e o nome do assessor é Rafael</t>
+  </si>
+  <si>
+    <t>Gilberto Abramo é líder do Republicanos, é do partido Republicanos por Minas Gerais, seu telefone é 3215-5604, seu email é dep.gilbertoabramo@camara.leg.br, o endereço da liderança é Anexo I, 5º andar, sala 508, o endereço do Gabinete é Anexo 3, gabinete 354, o celular do deputado é 031 99862-1588 o celular da assessora é 061 98104-0205 e o nome do assessor é Débora</t>
+  </si>
+  <si>
+    <t>Isnaldo Bulhões Jr. é líder do MDB, é do partido MDB por Alagoas, seu telefone é 3215-5474, seu email é dep.isnaldobulhoesjr@camara.leg.br, o endereço da liderança é Anexo I, 5º andar, sala 505, o endereço do Gabinete é Anexo 3, gabinete 932, o celular do deputado é 082 99646-1515, o celular do assessor é 082 99971-0612 e o nome do assessor é Renato</t>
+  </si>
+  <si>
+    <t>O PT está na Federação Brasil da Esperança - Fe Brasil, portanto o líder é o Deputado Lindbergh Farias, que representa o Rio de Janeiro, seu telefone é 3215-5227, seu email é dep.lindberghfarias@camara.leg.br, o endereço da liderança é Edifício Principal, Térreo, ala B, sala 23, o endereço do Gabinete é Anexo 4, gabinete 227, o celular do deputado é 061 99815-0833, o celular da assessora é 021 98105-1277 e o nome da assessora é Maria.</t>
+  </si>
+  <si>
+    <t>Luis Tibé é líder do bloco Avante-Solidariedade-PRD, é do partido Avante por Minas Gerais, seu telefone é 3215-5444, seu email é dep.luistibe@camara.leg.br, o endereço da liderança é Anexo I, 4º andar, sala 455, o endereço do Gabinete é Anexo 4, gabinete 316, o celular do deputado é 061 99623-9970, o celular do assessor é 061 99103-0773 e o nome do assessor é Rodrigo</t>
+  </si>
+  <si>
+    <t>Marcel van Hattem é líder do Novo, é do partido Novo pelo Rio Grande do Sul, seu telefone é 3215-5817, seu email é dep.marcelvanhattem@camara.leg.br, o endereço da liderança é Anexo I, 9º andar, sala 916, o endereço do Gabinete é Anexo 3, gabinete 510, o celular do deputado é 051 99591-4462, o celular do assessor é 051 99463-7344 e o nome do assessor é Conrado</t>
+  </si>
+  <si>
+    <t>Mário Heringer é líder do PDT, é do partido PDT por Minas Gerais, seu telefone é 3215-5937, seu email é dep.marioheringer@camara.leg.br, o endereço da liderança é Anexo I, 5º andar, sala 506, o endereço do Gabinete é Anexo 3, gabinete 335, o celular do deputado é 061 98124-1234, o celular do assessor é 061 98215-2443 e o nome do assessor é Daniel</t>
+  </si>
+  <si>
+    <t>Neto Carletto é líder do Avante, é do partido Avante pela Bahia, seu telefone é 3215-5850, seu email é dep.netocarletto@camara.leg.br, o endereço da liderança é Anexo I, 4º andar, sala 456, o endereço do Gabinete é Anexo 3, gabinete 542, o celular do deputado é 073 98834-8409, o celular do assessor é 061 99612-9930 e o nome do assessor é Cristiano</t>
+  </si>
+  <si>
+    <t>Pedro Campos é líder do PSB, é do partido PSB por Pernambuco, seu telefone é 3215-5921, seu email é dep.pedrocampos@camara.leg.br, o endereço da liderança é Anexo I, 4º andar, sala 461, o endereço do Gabinete é Anexo 3, gabinete 316, o celular do deputado é 081 99960-6635, o celular do assessor é 061 98116-16350 e o nome do assessor é Fabiano</t>
+  </si>
+  <si>
+    <t>Pedro Lucas Fernandes é líder do União Brasil, é do partido União pelo Maranhão, seu telefone é 3215-5841, seu email é dep.pedrolucasfernandes@camara.leg.br, o endereço da liderança é Anexo I, 5º andar, sala 512, o endereço do Gabinete é Anexo 3, gabinete 441, o celular do deputado é 098 99105-0044, o celular do assessor é 061 99943-00148 e o nome do assessor é Marcos</t>
+  </si>
+  <si>
+    <t>O líder do PODE é o Deputado Rodrigo Gambale, que representa o estado SP, seu telefone é 3215-5939, seu email é dep.rodrigogambale@camara.leg.br, o endereço da liderança é Anexo IV, subsolo, sala 76, o endereço do Gabinete é Anexo 4, gabinete 939, o celular do deputado é 011 97317-1777, o celular do assessor é 061 98570-0340 e o nome da assessora é Liliene.</t>
+  </si>
+  <si>
+    <t>O líder do PL é o Deputado Sóstenes Cavalcante, que representa o estado RJ, seu telefone é 3215-5560, seu email é dep.sostenescavalcante@camara.leg.br, o endereço da liderança é Anexo II, sala 122, ala das lideranças, o endereço do Gabinete é Anexo 4, gabinete 560, o celular do deputado é 061 99175-8139, o celular do assessor é 061 99131-0375 e o nome do assessor é Monalisa.</t>
   </si>
 </sst>
 </file>
@@ -1101,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B22"/>
+    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
         <v>170</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1270,7 +1270,7 @@
         <v>173</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1308,7 +1308,7 @@
         <v>175</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1346,7 +1346,7 @@
         <v>177</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1384,7 +1384,7 @@
         <v>179</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1422,7 +1422,7 @@
         <v>181</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1460,7 +1460,7 @@
         <v>184</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1498,7 +1498,7 @@
         <v>186</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1536,7 +1536,7 @@
         <v>141</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1574,7 +1574,7 @@
         <v>190</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1612,7 +1612,7 @@
         <v>193</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1650,7 +1650,7 @@
         <v>196</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1688,7 +1688,7 @@
         <v>199</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1726,7 +1726,7 @@
         <v>202</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1764,7 +1764,7 @@
         <v>142</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1802,7 +1802,7 @@
         <v>143</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1840,7 +1840,7 @@
         <v>205</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1878,7 +1878,7 @@
         <v>208</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1916,7 +1916,7 @@
         <v>166</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1954,7 +1954,7 @@
         <v>211</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
